--- a/herb_image_manifest.xlsx
+++ b/herb_image_manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirong/Desktop/CCD_RAG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E8A99522-F11C-1B4A-BA0A-D06A0597B3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F2D84C-31B7-CB47-9BBA-27D8D1D40808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{DA4F6365-4273-5049-9F65-33CE40D4D054}"/>
+    <workbookView xWindow="7300" yWindow="740" windowWidth="22100" windowHeight="17080" xr2:uid="{DA4F6365-4273-5049-9F65-33CE40D4D054}"/>
   </bookViews>
   <sheets>
     <sheet name="herb_image_manifest" sheetId="1" r:id="rId1"/>
@@ -41,79 +41,94 @@
     <t>herb_name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>人蔘（Ren Shen／Ginseng）</t>
+  </si>
+  <si>
+    <t>herb_img</t>
+  </si>
+  <si>
+    <t>甘草（Gan Cao／Licorice）</t>
+  </si>
+  <si>
+    <t>白芍藥（Bai Shao Yao／White Peony）</t>
+  </si>
+  <si>
+    <t>何首烏（He Shou Wu／Fo-ti）</t>
+  </si>
+  <si>
+    <t>黃耆（Huang Qi／Astragalus）</t>
+  </si>
+  <si>
+    <t>當歸（Dang Gui／Angelica）</t>
+  </si>
+  <si>
+    <t>熟地黃（Shu Di Huang／Rehmannia）</t>
+  </si>
+  <si>
+    <t>Palmate compound leaves with five leaflets, black berries growing at the top, erect stems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slender stems with climbing behavior, opposite small leaflets, and spikes of flowers at the top.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single white flowers, round petals with slightly wrinkled edges, elongated leaves growing in pairs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climbing and twining vine, heart-shaped leaves, prominent leaf veins, small dense clusters of flowers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slender feather-like compound leaves, flowers arranged in elongated spikes, with pea-like pods below.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hollow upright stems, umbrella-shaped flower clusters at the top, deeply divided feather-like leaves.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basal rosette of oval wrinkled leaves, long spike-like inflorescence, plant grows in slightly damp areas.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>caption</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>人蔘GunsengRenShen.png</t>
-  </si>
-  <si>
-    <t>人蔘（Ren Shen／Ginseng）</t>
-  </si>
-  <si>
-    <t>掌狀複葉，五小葉，頂端簇生黑色漿果，莖直立</t>
-  </si>
-  <si>
-    <t>herb_img</t>
-  </si>
-  <si>
-    <t>甘草GanCao.png</t>
-  </si>
-  <si>
-    <t>甘草（Gan Cao／Licorice）</t>
-  </si>
-  <si>
-    <t>莖細長呈藤蔓狀，小葉對生，頂端有稀疏花序</t>
-  </si>
-  <si>
-    <t>白芍藥PeaoniaBiaShaoYao.png</t>
-  </si>
-  <si>
-    <t>白芍藥（Bai Shao Yao／White Peony）</t>
-  </si>
-  <si>
-    <t>單瓣白花，花瓣圓而微皺，葉片狹長對生</t>
-  </si>
-  <si>
-    <t>何首烏PolygonumHeShouWu.png</t>
-  </si>
-  <si>
-    <t>何首烏（He Shou Wu／Fo-ti）</t>
-  </si>
-  <si>
-    <t>藤蔓纏繞，葉呈心形，葉脈明顯，花序細小密集</t>
-  </si>
-  <si>
-    <t>黃芪HuangQi.png</t>
-  </si>
-  <si>
-    <t>黃耆（Huang Qi／Astragalus）</t>
-  </si>
-  <si>
-    <t>細長羽狀複葉，花序呈總狀，下垂豆莢</t>
-  </si>
-  <si>
-    <t>當歸AngelicaDangGui.png</t>
-  </si>
-  <si>
-    <t>當歸（Dang Gui／Angelica）</t>
-  </si>
-  <si>
-    <t>中空直立莖，頂端傘形花序呈球狀，葉片羽狀深裂</t>
-  </si>
-  <si>
-    <t>熟地黃RehmanniaShuDiHuang.png</t>
-  </si>
-  <si>
-    <t>熟地黃（Shu Di Huang／Rehmannia）</t>
-  </si>
-  <si>
-    <t>基生葉卵狀皺縮，花冠長筒狀，植株矮小貼地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GunsengRenShen.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GanCao.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeaoniaBiaShaoYao.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuangQi.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolygonumHeShouWu.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngelicaDangGui.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RehmanniaShuDiHuang.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -500,126 +515,126 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
